--- a/excel/src/test/resources/eolinker信息.xlsx
+++ b/excel/src/test/resources/eolinker信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="86">
   <si>
     <r>
       <rPr>
@@ -64,26 +64,10 @@
     <t>年龄</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wangfei</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王飞</t>
-    </r>
+    <t>zhangsan1</t>
+  </si>
+  <si>
+    <t>张三1</t>
   </si>
   <si>
     <t>是</t>
@@ -98,26 +82,10 @@
     <t>28岁</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>zhou_fan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周凡</t>
-    </r>
+    <t>zhangsan2</t>
+  </si>
+  <si>
+    <t>张三2</t>
   </si>
   <si>
     <r>
@@ -137,26 +105,10 @@
     <t>23岁</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>chenyuejin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈跃进</t>
-    </r>
+    <t>zhangsan3</t>
+  </si>
+  <si>
+    <t>张三3</t>
   </si>
   <si>
     <r>
@@ -176,26 +128,10 @@
     <t>34岁</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>fengyunlong</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冯云龙</t>
-    </r>
+    <t>zhangsan4</t>
+  </si>
+  <si>
+    <t>张三4</t>
   </si>
   <si>
     <t>D</t>
@@ -204,73 +140,25 @@
     <t>25岁</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>liyanping</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>李艳平</t>
-    </r>
+    <t>zhangsan5</t>
+  </si>
+  <si>
+    <t>张三5</t>
   </si>
   <si>
     <t>26岁</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wangmingtao</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王鸣涛</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>longfengfan</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>龙风帆</t>
-    </r>
+    <t>zhangsan6</t>
+  </si>
+  <si>
+    <t>张三6</t>
+  </si>
+  <si>
+    <t>zhangsan7</t>
+  </si>
+  <si>
+    <t>张三7</t>
   </si>
   <si>
     <t>P1</t>
@@ -279,490 +167,151 @@
     <t>27岁</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kangyunyao</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>康运尧</t>
-    </r>
+    <t>zhangsan8</t>
+  </si>
+  <si>
+    <t>张三8</t>
   </si>
   <si>
     <t>30岁</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>baixiang</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>白翔</t>
-    </r>
+    <t>zhangsan9</t>
+  </si>
+  <si>
+    <t>张三9</t>
   </si>
   <si>
     <t>20岁</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>chenqiang</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>陈强</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>zhangzhiwei</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张智伟</t>
-    </r>
+    <t>zhangsan10</t>
+  </si>
+  <si>
+    <t>张三10</t>
+  </si>
+  <si>
+    <t>zhangsan11</t>
+  </si>
+  <si>
+    <t>张三11</t>
   </si>
   <si>
     <t>P2</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wrui</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王瑞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>haojie</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>郝杰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ruipeng</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>芮鹏</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wuyuanqiao</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吴远桥</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kongxiaoping</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孔小平</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wangzheng</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王正</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>luocheng</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>罗成</t>
-    </r>
-  </si>
-  <si>
-    <t>huyingjie</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>胡应杰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>zhoukun</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周坤</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wangchao</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>汪超</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>wangyang</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>王杨</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>zhaoyang</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赵洋</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>yanghaoran</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杨浩然</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>laixiuxia</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>赖修霞</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>xuwenjie</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>许文杰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>liangjie</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>梁杰</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">zhangjun
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张军</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>kongjikai</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>孔继凯</t>
-    </r>
+    <t>zhangsan12</t>
+  </si>
+  <si>
+    <t>张三12</t>
+  </si>
+  <si>
+    <t>zhangsan13</t>
+  </si>
+  <si>
+    <t>张三13</t>
+  </si>
+  <si>
+    <t>zhangsan14</t>
+  </si>
+  <si>
+    <t>张三14</t>
+  </si>
+  <si>
+    <t>zhangsan15</t>
+  </si>
+  <si>
+    <t>张三15</t>
+  </si>
+  <si>
+    <t>zhangsan16</t>
+  </si>
+  <si>
+    <t>张三16</t>
+  </si>
+  <si>
+    <t>zhangsan17</t>
+  </si>
+  <si>
+    <t>张三17</t>
+  </si>
+  <si>
+    <t>zhangsan18</t>
+  </si>
+  <si>
+    <t>张三18</t>
+  </si>
+  <si>
+    <t>zhangsan19</t>
+  </si>
+  <si>
+    <t>张三19</t>
+  </si>
+  <si>
+    <t>zhangsan20</t>
+  </si>
+  <si>
+    <t>张三20</t>
+  </si>
+  <si>
+    <t>zhangsan21</t>
+  </si>
+  <si>
+    <t>张三21</t>
+  </si>
+  <si>
+    <t>zhangsan22</t>
+  </si>
+  <si>
+    <t>张三22</t>
+  </si>
+  <si>
+    <t>zhangsan23</t>
+  </si>
+  <si>
+    <t>张三23</t>
+  </si>
+  <si>
+    <t>zhangsan24</t>
+  </si>
+  <si>
+    <t>张三24</t>
+  </si>
+  <si>
+    <t>zhangsan25</t>
+  </si>
+  <si>
+    <t>张三25</t>
+  </si>
+  <si>
+    <t>zhangsan26</t>
+  </si>
+  <si>
+    <t>张三26</t>
+  </si>
+  <si>
+    <t>zhangsan27</t>
+  </si>
+  <si>
+    <t>张三27</t>
+  </si>
+  <si>
+    <t>zhangsan28</t>
+  </si>
+  <si>
+    <t>张三28</t>
+  </si>
+  <si>
+    <t>zhangsan29</t>
+  </si>
+  <si>
+    <t>张三29</t>
+  </si>
+  <si>
+    <t>zhangsan30</t>
+  </si>
+  <si>
+    <t>张三30</t>
   </si>
 </sst>
 </file>
@@ -770,10 +319,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -824,8 +373,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,6 +389,22 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -854,7 +426,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -877,46 +449,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,8 +462,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,15 +472,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,13 +524,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,7 +584,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,85 +650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1101,19 +674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,31 +692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1191,6 +740,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1202,6 +760,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,7 +813,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1241,30 +829,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1273,172 +837,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1465,9 +1014,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1818,7 +1364,7 @@
   <dimension ref="A1:AB198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="B2" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
@@ -2525,10 +2071,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>21</v>
@@ -2571,10 +2117,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>16</v>
@@ -2617,10 +2163,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>21</v>
@@ -2663,10 +2209,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>21</v>
@@ -2709,10 +2255,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>16</v>
@@ -2755,10 +2301,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>21</v>
@@ -2801,10 +2347,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>16</v>
@@ -2847,10 +2393,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>16</v>
@@ -2893,10 +2439,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>16</v>
@@ -2938,11 +2484,11 @@
       <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>71</v>
+      <c r="B25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>16</v>
@@ -2984,11 +2530,11 @@
       <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>73</v>
+      <c r="B26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>16</v>
@@ -3031,10 +2577,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>21</v>
@@ -3076,11 +2622,11 @@
       <c r="A28" s="7">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>77</v>
+      <c r="B28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>16</v>
@@ -3123,10 +2669,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>21</v>
@@ -3164,15 +2710,15 @@
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
     </row>
-    <row r="30" ht="49.5" spans="1:28">
+    <row r="30" ht="16.5" spans="1:28">
       <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>80</v>
+      <c r="B30" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>16</v>
@@ -3215,10 +2761,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>16</v>
